--- a/set-mailbox.xlsx
+++ b/set-mailbox.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lydia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02926A01-7E8C-4FD1-B82E-A842A9E401FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7377AB0-FDAA-4CBD-9557-854479D26DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F863C5AA-1E18-4177-A73A-BDC07ECDD854}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" activeTab="2" xr2:uid="{F863C5AA-1E18-4177-A73A-BDC07ECDD854}"/>
   </bookViews>
   <sheets>
     <sheet name="set-mailbox" sheetId="1" r:id="rId1"/>
     <sheet name="set-adminauditlogconfig" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="473">
   <si>
     <t>TenantId</t>
   </si>
@@ -1362,6 +1363,84 @@
   </si>
   <si>
     <t>718b10d6-a2c6-4f44-ba8e-e2ae19235590</t>
+  </si>
+  <si>
+    <t>| makeresults</t>
+  </si>
+  <si>
+    <t>| eval CreationTime="2025-06-10T16:23:42",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Id="2af83261-993a-4579-da33-08dda83b2a86",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Operation="Set-AdminAuditLogConfig",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      OrganizationId="384bb877-d355-46c9-a24e-cfdad23dd148",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      RecordType=1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ResultStatus="True",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      UserKey="admin@domain.onmicrosoft.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      UserType=2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Version=1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Workload="Exchange",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ClientIP="127.0.0.1:15166",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ObjectId="Admin Audit Log Settings",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      UserId="admin@domain.onmicrosoft.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AppId="",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AppPoolName="MSExchangeAdminApiNetCore",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ClientAppId="",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CorrelationID="",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ExternalAccess=false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      OrganizationName="domain.onmicrosoft.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      OriginatingServer="BY5PR17MB3779 (15.20.8746.028)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Parameters_Name="UnifiedAuditLogIngestionEnabled",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Parameters_Value="False",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      RequestId="72f49cd1-b98e-dbe5-4481-ce8a783efd82",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      SessionId="005c58b9-f35d-dd21-a262-881d4e6bcd9d"</t>
+  </si>
+  <si>
+    <t>| table CreationTime Id Operation OrganizationId RecordType ResultStatus UserKey UserType Version Workload ClientIP ObjectId UserId AppId AppPoolName ClientAppId CorrelationID ExternalAccess OrganizationName OriginatingServer Parameters_Name Parameters_Value RequestId SessionId</t>
   </si>
 </sst>
 </file>
@@ -2239,9 +2318,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2778,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>446</v>
       </c>
@@ -2791,7 +2870,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>446</v>
       </c>
@@ -2883,7 +2962,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:152" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>446</v>
       </c>
@@ -2975,7 +3054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -3067,7 +3146,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>446</v>
       </c>
@@ -3168,13 +3247,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF097F99-6D0E-40D4-AE22-F0E7578FCE64}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -3200,7 +3279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -3220,7 +3299,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -3240,7 +3319,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -3260,7 +3339,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -3280,7 +3359,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -3300,7 +3379,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -3320,7 +3399,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -3340,7 +3419,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -3360,7 +3439,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -3380,7 +3459,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -3400,7 +3479,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -3420,7 +3499,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -3440,7 +3519,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -3460,7 +3539,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -3480,7 +3559,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -3500,7 +3579,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -3520,7 +3599,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -3540,7 +3619,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -3560,7 +3639,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -3580,7 +3659,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -3600,7 +3679,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>230</v>
       </c>
@@ -3620,7 +3699,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -3640,7 +3719,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -3660,7 +3739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -3680,7 +3759,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -3700,7 +3779,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>241</v>
       </c>
@@ -3720,7 +3799,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -3740,7 +3819,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -3760,7 +3839,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>247</v>
       </c>
@@ -3780,7 +3859,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>249</v>
       </c>
@@ -3800,7 +3879,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -3820,7 +3899,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -3840,7 +3919,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>256</v>
       </c>
@@ -3860,7 +3939,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>258</v>
       </c>
@@ -3880,7 +3959,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>260</v>
       </c>
@@ -3900,7 +3979,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>262</v>
       </c>
@@ -3920,7 +3999,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>264</v>
       </c>
@@ -3940,7 +4019,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>266</v>
       </c>
@@ -3960,7 +4039,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>267</v>
       </c>
@@ -3980,7 +4059,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>269</v>
       </c>
@@ -4000,7 +4079,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>271</v>
       </c>
@@ -4020,7 +4099,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>273</v>
       </c>
@@ -4040,7 +4119,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>276</v>
       </c>
@@ -4060,7 +4139,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>278</v>
       </c>
@@ -4080,7 +4159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>280</v>
       </c>
@@ -4100,7 +4179,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>282</v>
       </c>
@@ -4120,7 +4199,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>284</v>
       </c>
@@ -4140,7 +4219,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>286</v>
       </c>
@@ -4160,7 +4239,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -4180,7 +4259,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>291</v>
       </c>
@@ -4200,7 +4279,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>293</v>
       </c>
@@ -4220,7 +4299,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>295</v>
       </c>
@@ -4240,7 +4319,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>297</v>
       </c>
@@ -4260,7 +4339,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>299</v>
       </c>
@@ -4280,7 +4359,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>301</v>
       </c>
@@ -4300,7 +4379,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>303</v>
       </c>
@@ -4320,7 +4399,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>305</v>
       </c>
@@ -4340,7 +4419,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>307</v>
       </c>
@@ -4360,7 +4439,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>308</v>
       </c>
@@ -4380,7 +4459,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>309</v>
       </c>
@@ -4400,7 +4479,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>311</v>
       </c>
@@ -4420,7 +4499,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -4440,7 +4519,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>315</v>
       </c>
@@ -4460,7 +4539,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>317</v>
       </c>
@@ -4480,7 +4559,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>319</v>
       </c>
@@ -4500,7 +4579,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>320</v>
       </c>
@@ -4520,7 +4599,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>322</v>
       </c>
@@ -4540,7 +4619,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>323</v>
       </c>
@@ -4560,7 +4639,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>324</v>
       </c>
@@ -4580,7 +4659,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -4600,7 +4679,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>327</v>
       </c>
@@ -4620,7 +4699,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>329</v>
       </c>
@@ -4640,7 +4719,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>331</v>
       </c>
@@ -4660,7 +4739,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -4680,7 +4759,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>335</v>
       </c>
@@ -4700,7 +4779,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>337</v>
       </c>
@@ -4720,7 +4799,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>339</v>
       </c>
@@ -4740,7 +4819,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>341</v>
       </c>
@@ -4760,7 +4839,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>342</v>
       </c>
@@ -4780,7 +4859,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>344</v>
       </c>
@@ -4800,7 +4879,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>347</v>
       </c>
@@ -4820,7 +4899,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>348</v>
       </c>
@@ -4846,4 +4925,152 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4032B03A-43E2-45B2-97F3-D7F5C69105DC}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="63.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>